--- a/code/accidents_at_work/type_of_injury_08.xlsx
+++ b/code/accidents_at_work/type_of_injury_08.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>number_of_working_accidents</t>
   </si>
@@ -22,10 +22,16 @@
     <t>type_of_wound</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>23.07</t>
   </si>
   <si>
     <t>Rupture</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>2.08</t>
@@ -116,11 +122,16 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="13"/>
@@ -154,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -174,21 +185,6 @@
       </top>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,71 +233,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -313,6 +273,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -320,33 +283,6 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -505,13 +441,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -601,19 +531,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -868,13 +798,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1178,19 +1102,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1441,15 +1365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.1641" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.0547" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
@@ -1464,400 +1388,225 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2102</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="7">
+      <c r="B2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="13.2" customHeight="1">
       <c r="A3" s="8">
         <v>190</v>
       </c>
       <c r="B3" t="s" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
     </row>
     <row r="4" ht="13.2" customHeight="1">
       <c r="A4" s="8">
         <v>2303</v>
       </c>
       <c r="B4" t="s" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
       <c r="A5" s="8">
         <v>217</v>
       </c>
       <c r="B5" t="s" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="8">
         <v>128</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="8">
         <v>2820</v>
       </c>
       <c r="B7" t="s" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" ht="13.2" customHeight="1">
       <c r="A8" s="8">
         <v>189</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" ht="13.2" customHeight="1">
       <c r="A9" s="8">
         <v>796</v>
       </c>
       <c r="B9" t="s" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="13.2" customHeight="1">
       <c r="A10" s="8">
         <v>14</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" ht="13.2" customHeight="1">
       <c r="A11" s="8">
         <v>0</v>
       </c>
       <c r="B11" t="s" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" ht="75.75" customHeight="1">
       <c r="A12" s="8">
         <v>297</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="8">
         <v>0</v>
       </c>
       <c r="B13" t="s" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="8">
         <v>24</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" t="s" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="7">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="12">
         <v>29</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" ht="24.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" ht="13.2" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" ht="13.2" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" ht="13.2" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" ht="13.2" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" ht="13.2" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" ht="13.2" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" ht="13.2" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" ht="13.2" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" ht="13.2" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" ht="13.2" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" ht="13.2" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" ht="13.2" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" ht="13.2" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" ht="13.2" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" ht="13.2" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" ht="13.2" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" ht="13.2" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" ht="27.6" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" ht="13.2" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" ht="13.2" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" ht="13.2" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" ht="13.2" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" ht="13.2" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" ht="13.2" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D16" t="s" s="6">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.590551" right="0.590551" top="1.41732" bottom="0.19685" header="0.11811" footer="0.11811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="85" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>